--- a/Jashera 2023/Список продуктов.xlsx
+++ b/Jashera 2023/Список продуктов.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Lab-processings\Jashera 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Продукты</t>
   </si>
@@ -146,9 +151,6 @@
     <t xml:space="preserve">Консервы мясные.Мясо говядины  тушеное. ГОСТ </t>
   </si>
   <si>
-    <t>Тушенка из индейки</t>
-  </si>
-  <si>
     <t>Консервы рыбные натуральные «Горбуша»</t>
   </si>
   <si>
@@ -256,9 +258,6 @@
     <t>Икра кабачковая в жестяных банках</t>
   </si>
   <si>
-    <t>фасоль белая консервированная в томате</t>
-  </si>
-  <si>
     <t>3 банки</t>
   </si>
   <si>
@@ -313,9 +312,6 @@
     <t>0.5 л</t>
   </si>
   <si>
-    <t>сыр плавленый</t>
-  </si>
-  <si>
     <t>6 уп</t>
   </si>
   <si>
@@ -350,21 +346,47 @@
   </si>
   <si>
     <t>2 уп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реально пришло </t>
+  </si>
+  <si>
+    <t xml:space="preserve">у4  </t>
+  </si>
+  <si>
+    <t>УПАКОВКА</t>
+  </si>
+  <si>
+    <t>не нашли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сыр плавленый </t>
+  </si>
+  <si>
+    <t>3,8 (было 1.5)</t>
+  </si>
+  <si>
+    <t>1.6 кг прислали</t>
+  </si>
+  <si>
+    <t>фасоль белая консервированная в томате КРАСНАЯ</t>
+  </si>
+  <si>
+    <t>Тушенка из индейки ЦЫПЛЕНОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mmm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="dd\.mmm"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,153 +472,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -625,7 +503,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,198 +536,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -872,322 +564,80 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,68 +655,42 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-i" xfId="2"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Обычный_Моя Копия 24(1).06.08" xfId="3"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="Обычный 2" xfId="41"/>
-    <cellStyle name="40% — Акцент3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="43" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="44" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="45" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="46" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="47" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="48" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="49" builtinId="52"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-i" xfId="50"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Обычный_Моя Копия 24(1).06.08" xfId="51"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1524,30 +948,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
-    <col min="3" max="4" width="20.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="2" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1555,685 +978,752 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" ht="62.4" hidden="1" spans="1:3">
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="63">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="28"/>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:4">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>16.2</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="28"/>
+      <c r="E3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:4">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>5.6</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:4">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>4.5</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="28"/>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:5">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="28"/>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:5">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>2.25</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="28"/>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="31.2" spans="1:4">
+    <row r="8" spans="1:9" ht="31.5">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6">
         <v>0.75</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="29"/>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="31.2" spans="1:5">
+    <row r="9" spans="1:9" ht="31.5">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>9.45</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="E9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" ht="31.2" spans="1:2">
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="11" ht="62.4" hidden="1" spans="1:3">
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="63">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8">
         <v>90</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="30"/>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:2">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" ht="46.8" spans="1:2">
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="47.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:2">
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" ht="31.2" spans="1:2">
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" ht="31.5">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" ht="31.2" spans="1:2">
+      <c r="C15" s="28"/>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31.5">
       <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="17" ht="31.2" spans="1:2">
+      <c r="C16" s="28"/>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" ht="46.8" spans="1:2">
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" ht="47.25">
       <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="19" ht="31.2" spans="1:5">
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" ht="31.5">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6">
         <v>0.72</v>
       </c>
-      <c r="D19">
+      <c r="C19" s="29"/>
+      <c r="E19">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:5">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="6">
         <v>0.36</v>
       </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" ht="31.2" spans="1:4">
+      <c r="C20" s="29"/>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5">
       <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2">
         <v>22.308</v>
       </c>
-      <c r="D21">
+      <c r="C21" s="28"/>
+      <c r="E21">
         <v>26</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:2">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" ht="31.5">
+      <c r="A23" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9.45</v>
-      </c>
-    </row>
-    <row r="23" ht="31.2" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="B23" s="2">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="24" ht="31.2" spans="1:4">
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="31.5">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
         <v>1.5</v>
       </c>
-      <c r="D24">
+      <c r="C24" s="28"/>
+      <c r="E24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" ht="15.6" hidden="1" spans="1:3">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="17">
         <v>3.9</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="31"/>
+      <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15.6" hidden="1" spans="1:3">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="17">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="31"/>
+      <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="31.2" spans="1:4">
+    <row r="27" spans="1:9" ht="47.25">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
         <v>7.2</v>
       </c>
-      <c r="D27">
+      <c r="C27" s="28"/>
+      <c r="E27">
         <v>7</v>
       </c>
     </row>
-    <row r="28" ht="78" spans="1:4">
+    <row r="28" spans="1:9" ht="78.75">
       <c r="A28" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
         <v>1.8</v>
       </c>
-      <c r="D28">
+      <c r="C28" s="28"/>
+      <c r="E28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:4">
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
         <v>5.4</v>
       </c>
-      <c r="D29">
+      <c r="C29" s="28"/>
+      <c r="E29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" ht="31.2" spans="1:2">
+    <row r="30" spans="1:9" ht="31.5">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="31" ht="31.2" spans="1:2">
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" ht="47.25">
       <c r="A31" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="32" ht="46.8" spans="1:4">
+      <c r="C31" s="28"/>
+      <c r="I31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="47.25">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
         <v>18</v>
       </c>
-      <c r="D32">
+      <c r="C32" s="28"/>
+      <c r="E32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:2">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" ht="31.2" spans="1:4">
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" ht="31.5">
       <c r="A34" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>12</v>
       </c>
-      <c r="D34">
+      <c r="C34" s="28"/>
+      <c r="E34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:4">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
         <v>12</v>
       </c>
-      <c r="D35">
+      <c r="C35" s="28"/>
+      <c r="E35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="93.6" spans="1:4">
+    <row r="36" spans="1:6" ht="31.5">
       <c r="A36" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
         <v>1.5</v>
       </c>
-      <c r="D36">
+      <c r="C36" s="28"/>
+      <c r="E36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="78" spans="1:5">
+    <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="C37" s="28"/>
+      <c r="F37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="109.2" spans="1:5">
+    <row r="38" spans="1:6" ht="31.5">
       <c r="A38" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
         <v>2.7</v>
       </c>
-      <c r="E38">
+      <c r="C38" s="28"/>
+      <c r="F38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" ht="62.4" spans="1:5">
+    <row r="39" spans="1:6" ht="15.75">
       <c r="A39" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
         <v>0.5</v>
       </c>
-      <c r="E39">
+      <c r="C39" s="28"/>
+      <c r="F39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" ht="31.2" spans="1:2">
+    <row r="40" spans="1:6" ht="31.5">
       <c r="A40" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="41" ht="15.6" spans="1:2">
+      <c r="C40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75">
       <c r="A41" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" ht="31.5">
+      <c r="A42" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="23">
+        <v>3.7349999999999999</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="2">
-        <v>4.36</v>
-      </c>
-    </row>
-    <row r="42" ht="31.2" spans="1:5">
-      <c r="A42" s="20" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="31.5">
+      <c r="A43" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="B42" s="23">
-        <v>3.735</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" ht="15.6" spans="1:2">
-      <c r="A43" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="B43" s="2">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="44" ht="15.6" spans="1:2">
+      <c r="C43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75">
       <c r="A44" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" ht="15.6" spans="1:2">
+      <c r="C44" s="28"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75">
       <c r="A45" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" ht="15.6" spans="1:4">
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
         <v>18</v>
       </c>
-      <c r="D46">
+      <c r="C46" s="28"/>
+      <c r="E46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="1:2">
+    <row r="47" spans="1:6" ht="15.75">
       <c r="A47" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" ht="62.4" hidden="1" spans="1:3">
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:6" ht="63">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
         <v>21.75</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="28"/>
+      <c r="D48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:3">
+    <row r="49" spans="1:9">
       <c r="A49" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="26">
         <v>2.25</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="33"/>
+      <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="D50">
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51">
-        <v>17</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52">
-        <v>17</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53">
-        <v>17</v>
-      </c>
-      <c r="E53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54">
-        <v>17</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55">
-        <v>17</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+      <c r="F57" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E56" t="s">
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
         <v>66</v>
       </c>
-      <c r="D57">
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63">
         <v>2</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60">
-        <v>7</v>
-      </c>
-      <c r="E60">
+      <c r="F63" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61">
-        <v>7</v>
-      </c>
-      <c r="E61">
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62">
-        <v>7</v>
-      </c>
-      <c r="E62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" s="27" t="s">
+      <c r="F65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C49">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>